--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7430BA61-9380-41AB-AF5E-9C0B95001364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A62D1C2-D25E-4581-9BE1-7F652DCD82DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -226,10 +226,10 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -553,72 +553,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -633,9 +631,8 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,9 +647,8 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -667,9 +663,8 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -684,9 +679,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="8" spans="1:19" ht="51.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -704,47 +698,44 @@
         <v>44959</v>
       </c>
       <c r="G8" s="2">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="H8" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="I8" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="J8" s="2">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="K8" s="2">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="L8" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="M8" s="2">
-        <v>44972</v>
-      </c>
-      <c r="N8" s="2">
         <v>44973</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -759,27 +750,28 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="4">
-        <f>SUM(C9:N9)/12</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -794,27 +786,28 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="4">
-        <f t="shared" ref="O10:O25" si="0">SUM(C10:N10)/12</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N10" s="4">
+        <f>SUM(C10:M10)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -827,29 +820,30 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
+      <c r="N11" s="4">
+        <f>SUM(C11:M11)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -864,27 +858,28 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="4">
+        <f>SUM(C12:M12)/12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -899,27 +894,28 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="4">
-        <f t="shared" si="0"/>
+      <c r="N13" s="4">
+        <f>SUM(C13:M13)/12</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -932,27 +928,28 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="N14" s="4">
+        <f>SUM(C14:M14)/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -963,29 +960,30 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
+      <c r="N15" s="4">
+        <f>SUM(C15:M15)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -998,27 +996,28 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N16" s="4">
+        <f>SUM(C16:M16)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1031,27 +1030,28 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N17" s="4">
+        <f>SUM(C17:M17)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1064,27 +1064,28 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="4">
-        <f t="shared" si="0"/>
+      <c r="N18" s="4">
+        <f>SUM(C18:M18)/12</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1097,27 +1098,28 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
+      <c r="N19" s="4">
+        <f>SUM(C19:M19)/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1130,27 +1132,28 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N20" s="4">
+        <f>SUM(C20:M20)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1163,27 +1166,28 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N21" s="4">
+        <f>SUM(C21:M21)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1196,27 +1200,28 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N22" s="4">
+        <f>SUM(C22:M22)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1229,27 +1234,28 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="N23" s="4">
+        <f>SUM(C23:M23)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1260,29 +1266,30 @@
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
+      <c r="N24" s="4">
+        <f>SUM(C24:M24)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1295,27 +1302,28 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N25" s="4">
+        <f>SUM(C25:M25)/12</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1328,27 +1336,28 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="4">
-        <f t="shared" ref="O26" si="1">SUM(C26:N26)/12</f>
+      <c r="N26" s="4">
+        <f>SUM(C26:M26)/12</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1361,24 +1370,35 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="4">
-        <f t="shared" ref="O27" si="2">SUM(C27:N27)/12</f>
-        <v>0.25</v>
-      </c>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27" si="0">SUM(C27:M27)/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1394,16 +1414,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1411,7 +1421,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{3155587D-463B-4D8D-BC0B-AAE55E59E164}">
+          <x14:cfRule type="iconSet" priority="2" id="{3155587D-463B-4D8D-BC0B-AAE55E59E164}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1427,7 +1437,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:N27</xm:sqref>
+          <xm:sqref>C9:M27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A62D1C2-D25E-4581-9BE1-7F652DCD82DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2CC44-51DB-4EBB-A253-AC424C0759B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,15 +753,19 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4">
-        <f>SUM(C9:M9)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" ref="N9:N26" si="0">SUM(C9:M9)/12</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -789,15 +793,19 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4">
-        <f>SUM(C10:M10)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -825,15 +833,19 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4">
-        <f>SUM(C11:M11)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -861,15 +873,19 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4">
-        <f>SUM(C12:M12)/12</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -897,14 +913,18 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="4">
-        <f>SUM(C13:M13)/12</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O13" s="1"/>
@@ -931,14 +951,18 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4">
-        <f>SUM(C14:M14)/12</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="O14" s="1"/>
@@ -965,15 +989,19 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4">
-        <f>SUM(C15:M15)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -999,15 +1027,19 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="4">
-        <f>SUM(C16:M16)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1033,15 +1065,19 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="4">
-        <f>SUM(C17:M17)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1067,14 +1103,18 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="4">
-        <f>SUM(C18:M18)/12</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O18" s="1"/>
@@ -1101,15 +1141,19 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="4">
-        <f>SUM(C19:M19)/12</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1135,15 +1179,19 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="4">
-        <f>SUM(C20:M20)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1169,15 +1217,19 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4">
-        <f>SUM(C21:M21)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1203,15 +1255,19 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4">
-        <f>SUM(C22:M22)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1237,15 +1293,19 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4">
-        <f>SUM(C23:M23)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1271,15 +1331,19 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4">
-        <f>SUM(C24:M24)/12</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1305,14 +1369,18 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="4">
-        <f>SUM(C25:M25)/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O25" s="1"/>
@@ -1339,15 +1407,19 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="4">
-        <f>SUM(C26:M26)/12</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1373,14 +1445,18 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="4">
-        <f t="shared" ref="N27" si="0">SUM(C27:M27)/12</f>
+        <f t="shared" ref="N27" si="1">SUM(C27:M27)/12</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="O27" s="1"/>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2CC44-51DB-4EBB-A253-AC424C0759B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF9EE8-57B4-48D9-AA3D-897F3A01144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,13 +759,17 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N26" si="0">SUM(C9:M9)/12</f>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -799,13 +803,17 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -837,15 +845,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -877,15 +889,19 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -919,13 +935,17 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -955,15 +975,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -993,15 +1017,19 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1033,8 +1061,12 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="4">
@@ -1071,13 +1103,17 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1107,15 +1143,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1145,15 +1185,19 @@
         <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1185,13 +1229,17 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1223,13 +1271,17 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1261,13 +1313,17 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1299,13 +1355,17 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1337,13 +1397,17 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1375,13 +1439,17 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1413,13 +1481,17 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1449,15 +1521,19 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" ref="N27" si="1">SUM(C27:M27)/12</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF9EE8-57B4-48D9-AA3D-897F3A01144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19B533-DA03-4F8D-A4D6-849A32A93B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -226,10 +226,10 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,46 +575,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -732,10 +732,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -765,21 +765,25 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:N26" si="0">SUM(C9:M9)/12</f>
-        <v>0.75</v>
+        <f>SUM(C9:M9)/11</f>
+        <v>1</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -809,21 +813,25 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
       <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
+        <v>1</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -853,21 +861,25 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -897,21 +909,25 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -941,21 +957,25 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -983,21 +1003,25 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1025,21 +1049,25 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1067,21 +1095,25 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1109,21 +1141,25 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1151,21 +1187,25 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1193,21 +1233,25 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1235,21 +1279,25 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1277,21 +1325,25 @@
       <c r="K21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1319,21 +1371,25 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1361,21 +1417,25 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1403,21 +1463,25 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1445,21 +1509,25 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1487,21 +1555,25 @@
       <c r="K26" s="1">
         <v>1</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1529,11 +1601,15 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
       <c r="N27" s="4">
-        <f t="shared" ref="N27" si="1">SUM(C27:M27)/12</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1541,16 +1617,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1566,6 +1632,16 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19B533-DA03-4F8D-A4D6-849A32A93B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648BCAD-416C-4BE5-AEE2-D1D53E710A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
+    <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -144,6 +145,9 @@
   </si>
   <si>
     <t>DE JESUS HERNANDEZ BEATRÍZ</t>
+  </si>
+  <si>
+    <t>Componentes y Librerias</t>
   </si>
 </sst>
 </file>
@@ -226,10 +230,10 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -555,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A11" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,46 +579,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -732,10 +736,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -776,14 +780,18 @@
         <v>1</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -824,14 +832,18 @@
         <v>1</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="P10" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -872,14 +884,18 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -920,14 +936,18 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -968,14 +988,18 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1014,14 +1038,18 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1060,14 +1088,18 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1106,14 +1138,18 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1152,14 +1188,18 @@
         <v>1</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="1">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1198,14 +1238,18 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1244,14 +1288,18 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="P19" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1290,14 +1338,18 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1336,14 +1388,18 @@
         <v>1</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="P21" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1382,14 +1438,18 @@
         <v>1</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="P22" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1428,14 +1488,18 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="P23" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1474,14 +1538,18 @@
         <v>1</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1520,14 +1588,18 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1566,14 +1638,18 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="P26" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1612,11 +1688,25 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1632,16 +1722,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1671,4 +1751,805 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44977</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44979</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44980</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/11</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648BCAD-416C-4BE5-AEE2-D1D53E710A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35DE8A-7006-4CA3-8A78-56035EEF505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -230,10 +230,10 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -579,46 +579,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -736,10 +736,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -788,10 +788,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -840,10 +840,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -892,10 +892,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -944,10 +944,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -996,10 +996,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1046,10 +1046,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1096,10 +1096,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1146,10 +1146,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1196,10 +1196,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1246,10 +1246,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1296,10 +1296,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1346,10 +1346,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1396,10 +1396,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1446,10 +1446,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1496,10 +1496,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1546,10 +1546,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1596,10 +1596,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1646,10 +1646,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1697,16 +1697,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1722,6 +1712,16 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,46 +1777,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1896,8 +1896,12 @@
       <c r="E8" s="2">
         <v>44980</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>44984</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44985</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1918,10 +1922,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -1933,8 +1937,12 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1943,17 +1951,17 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/11</f>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -1965,8 +1973,12 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1975,17 +1987,17 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -1997,8 +2009,12 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2007,17 +2023,17 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -2029,8 +2045,12 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2046,10 +2066,10 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -2061,8 +2081,12 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2078,10 +2102,10 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2091,8 +2115,12 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2101,17 +2129,17 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -2121,8 +2149,12 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2131,17 +2163,17 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -2151,8 +2183,12 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2161,17 +2197,17 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -2181,8 +2217,12 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2191,17 +2231,17 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -2211,8 +2251,12 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2228,10 +2272,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -2241,8 +2285,12 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2251,17 +2299,17 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -2271,8 +2319,12 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2281,17 +2333,17 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -2301,8 +2353,12 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2311,17 +2367,17 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -2331,8 +2387,12 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2341,17 +2401,17 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -2361,8 +2421,12 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2371,17 +2435,17 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -2391,8 +2455,12 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2401,17 +2469,17 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -2421,8 +2489,12 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2438,10 +2510,10 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -2451,8 +2523,12 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2461,17 +2537,17 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -2481,8 +2557,12 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2491,7 +2571,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2499,13 +2579,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2518,12 +2597,13 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35DE8A-7006-4CA3-8A78-56035EEF505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017D936-68E3-4666-BA68-C1E111B97B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Componentes y Librerias</t>
+  </si>
+  <si>
+    <t>RIVERA HERNANDEZ ESTEFANY LIZETH</t>
   </si>
 </sst>
 </file>
@@ -230,10 +233,10 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,46 +582,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -736,10 +739,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -788,10 +791,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -840,10 +843,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -892,10 +895,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -944,10 +947,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -996,10 +999,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1046,10 +1049,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1096,10 +1099,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1146,10 +1149,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1196,10 +1199,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1246,10 +1249,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1296,10 +1299,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1346,10 +1349,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1396,10 +1399,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1446,10 +1449,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1496,10 +1499,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1546,10 +1549,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1596,10 +1599,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1646,10 +1649,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1695,8 +1698,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1712,16 +1776,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1745,7 +1799,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
+          <xm:sqref>C9:M28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1757,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -1777,46 +1831,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1922,10 +1976,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -1958,10 +2012,10 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -1994,10 +2048,10 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -2030,10 +2084,10 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -2066,10 +2120,10 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -2102,10 +2156,10 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2136,10 +2190,10 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -2170,10 +2224,10 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -2204,10 +2258,10 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -2238,10 +2292,10 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -2272,10 +2326,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -2306,10 +2360,10 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -2340,10 +2394,10 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -2374,10 +2428,10 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -2408,10 +2462,10 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -2442,10 +2496,10 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -2476,10 +2530,10 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -2510,10 +2564,10 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -2544,10 +2598,10 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -2579,12 +2633,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2597,13 +2652,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017D936-68E3-4666-BA68-C1E111B97B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1F07C-7E18-4774-83E9-367B3E41624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -1750,6 +1750,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A16:B16"/>
@@ -1766,16 +1776,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1956,9 @@
       <c r="G8" s="2">
         <v>44985</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>44994</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1997,7 +1999,9 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2005,7 +2009,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/11</f>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2033,7 +2037,9 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2041,7 +2047,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2069,7 +2075,9 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2077,7 +2085,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2105,7 +2113,9 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2113,7 +2123,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2141,7 +2151,9 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2175,7 +2187,9 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2209,7 +2223,9 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2217,7 +2233,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2243,7 +2259,9 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2277,7 +2295,9 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2285,7 +2305,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2311,7 +2331,9 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2345,7 +2367,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2353,7 +2377,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2379,7 +2403,9 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2387,7 +2413,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2413,7 +2439,9 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2421,7 +2449,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2447,7 +2475,9 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2455,7 +2485,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2481,7 +2511,9 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2489,7 +2521,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2515,7 +2547,9 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2523,7 +2557,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2549,7 +2583,9 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2583,7 +2619,9 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2591,7 +2629,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2617,7 +2655,9 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2625,7 +2665,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2633,13 +2673,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2652,12 +2691,13 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1F07C-7E18-4774-83E9-367B3E41624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61385711-33BA-420A-94BE-629B9332D184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
+    <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -151,6 +152,9 @@
   </si>
   <si>
     <t>RIVERA HERNANDEZ ESTEFANY LIZETH</t>
+  </si>
+  <si>
+    <t>Programación concurrente (MultiHilos)</t>
   </si>
 </sst>
 </file>
@@ -562,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="A21" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,16 +1754,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A16:B16"/>
@@ -1776,6 +1770,16 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1809,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,14 +2675,56 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="4">
+        <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+  <mergeCells count="26">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2691,20 +2737,19 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
+          <x14:cfRule type="iconSet" priority="2" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2722,6 +2767,792 @@
           </x14:cfRule>
           <xm:sqref>C9:M27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A41C2587-F283-47C8-B160-274C0B765BC1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C28:M28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44998</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/11</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="4">
+        <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{29C9DA2B-92C9-45D6-8F5D-C5C44B22BDEC}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{4106DA23-7638-45FB-A17B-FCC2929469F7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C28:M28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61385711-33BA-420A-94BE-629B9332D184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236B0FA-CACF-4B05-8B13-58F6DE3AD8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -1754,6 +1754,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A16:B16"/>
@@ -1770,16 +1780,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2717,14 +2717,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2737,12 +2735,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2797,7 +2797,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2929,9 @@
       <c r="C8" s="2">
         <v>44998</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>44999</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2962,7 +2964,9 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2974,7 +2978,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/11</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2990,7 +2994,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3002,7 +3008,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3018,7 +3024,9 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3030,7 +3038,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3046,7 +3054,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3058,7 +3068,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3074,7 +3084,9 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3086,7 +3098,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3100,7 +3112,9 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3112,7 +3126,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3126,7 +3140,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3138,7 +3154,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3152,7 +3168,9 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3164,7 +3182,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3178,7 +3196,9 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3204,7 +3224,9 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3216,7 +3238,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3230,7 +3252,9 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3242,7 +3266,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3256,7 +3280,9 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3268,7 +3294,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3282,7 +3308,9 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3294,7 +3322,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3308,7 +3336,9 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3320,7 +3350,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3334,7 +3364,9 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3346,7 +3378,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3360,7 +3392,9 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3372,7 +3406,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3386,7 +3420,9 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3412,7 +3448,9 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3424,7 +3462,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3438,7 +3476,9 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3464,7 +3504,9 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3476,7 +3518,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="4">
         <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3484,6 +3526,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A21:B21"/>
@@ -3492,24 +3552,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236B0FA-CACF-4B05-8B13-58F6DE3AD8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227FE15C-6CF7-42DA-A7E5-2B788A3EB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,8 +2932,12 @@
       <c r="D8" s="2">
         <v>44999</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45001</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2967,8 +2971,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2978,7 +2986,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/11</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2997,8 +3005,12 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3008,7 +3020,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3027,8 +3039,12 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3038,7 +3054,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3057,8 +3073,12 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3068,7 +3088,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3087,8 +3107,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3098,7 +3122,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3115,8 +3139,12 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3126,7 +3154,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3143,8 +3171,12 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3154,7 +3186,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3171,8 +3203,12 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3182,7 +3218,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3199,8 +3235,12 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3210,7 +3250,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3227,8 +3267,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3238,7 +3282,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3255,8 +3299,12 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3266,7 +3314,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3283,8 +3331,12 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3294,7 +3346,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3311,8 +3363,12 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3322,7 +3378,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3339,8 +3395,12 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3350,7 +3410,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3367,8 +3427,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3378,7 +3442,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3395,8 +3459,12 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3406,7 +3474,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3423,8 +3491,12 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3451,8 +3523,12 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3462,7 +3538,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3479,8 +3555,12 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3490,7 +3570,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3507,8 +3587,12 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3518,7 +3602,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="4">
         <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227FE15C-6CF7-42DA-A7E5-2B788A3EB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9926B-F849-4551-880A-C358E70EC294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:Q28"/>
+    <sheetView topLeftCell="A20" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,16 +1754,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A16:B16"/>
@@ -1780,6 +1770,16 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1815,8 +1815,1193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:Q28"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44977</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44979</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44980</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44984</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44985</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44994</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45001</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/10</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:H27 M9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{A41C2587-F283-47C8-B160-274C0B765BC1}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C28:H28 M28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{A19C76C6-2725-460E-A6FC-948FC5E35670}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I9:L27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{B4D6E61F-2F33-4F9B-A3CF-9065F8DD6DCF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I28:L28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1929,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1946,23 +3131,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2">
-        <v>44977</v>
+        <v>45006</v>
       </c>
       <c r="D8" s="2">
-        <v>44979</v>
+        <v>45007</v>
       </c>
       <c r="E8" s="2">
-        <v>44980</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44984</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44985</v>
-      </c>
-      <c r="H8" s="2">
-        <v>44994</v>
-      </c>
+        <v>45012</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1997,15 +3176,9 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2013,7 +3186,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/11</f>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2035,15 +3208,9 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2051,7 +3218,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2068,20 +3235,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2089,7 +3250,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2109,17 +3270,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2141,23 +3296,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2177,7 +3326,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2185,15 +3334,9 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2201,7 +3344,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2216,20 +3359,14 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2237,7 +3374,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2252,20 +3389,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2273,7 +3404,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2293,15 +3424,9 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2309,7 +3434,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2329,15 +3454,9 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2365,15 +3484,9 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2381,7 +3494,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2401,15 +3514,9 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2417,7 +3524,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2437,15 +3544,9 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2453,7 +3554,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2473,15 +3574,9 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2489,7 +3584,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2509,15 +3604,9 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2525,7 +3614,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2543,17 +3632,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2561,7 +3644,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2581,15 +3664,9 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2612,20 +3689,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2633,7 +3704,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2653,15 +3724,9 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2669,7 +3734,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2689,15 +3754,9 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2705,24 +3764,22 @@
       <c r="M28" s="1"/>
       <c r="N28" s="4">
         <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>0.54545454545454541</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2735,907 +3792,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{A41C2587-F283-47C8-B160-274C0B765BC1}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C28:M28</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
-  <dimension ref="A1:R28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2">
-        <v>44998</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45001</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:M9)/11</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4">
-        <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9926B-F849-4551-880A-C358E70EC294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CAB6B5-1356-4FFD-B2A9-D5FB47816A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -1754,6 +1754,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A16:B16"/>
@@ -1770,16 +1780,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2883,14 +2883,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2903,12 +2901,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3001,7 +3001,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,9 +3139,15 @@
       <c r="E8" s="2">
         <v>45012</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2">
+        <v>45013</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45015</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45033</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3176,9 +3182,15 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3186,7 +3198,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/11</f>
-        <v>0.27272727272727271</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3208,9 +3220,15 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3218,7 +3236,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.27272727272727271</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3235,14 +3253,20 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3250,7 +3274,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3272,9 +3296,15 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3282,7 +3312,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3304,9 +3334,15 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3334,9 +3370,15 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3359,14 +3401,20 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3374,7 +3422,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3394,9 +3442,15 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3404,7 +3458,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3424,9 +3478,15 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3434,7 +3494,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3454,9 +3514,15 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3464,7 +3530,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3484,9 +3550,15 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3494,7 +3566,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3514,9 +3586,15 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3524,7 +3602,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3544,9 +3622,15 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3554,7 +3638,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3574,9 +3658,15 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3584,7 +3674,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3604,9 +3694,15 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3614,7 +3710,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3634,9 +3730,15 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3664,9 +3766,15 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3694,9 +3802,15 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3704,7 +3818,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3724,9 +3838,15 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3734,7 +3854,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3754,9 +3874,15 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3764,7 +3890,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="4">
         <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3772,14 +3898,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3792,12 +3916,14 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CAB6B5-1356-4FFD-B2A9-D5FB47816A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23914E58-E898-418E-8C35-DFADB58349F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
+    <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="40">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -155,6 +156,9 @@
   </si>
   <si>
     <t>Programación concurrente (MultiHilos)</t>
+  </si>
+  <si>
+    <t>Acceso a Datos</t>
   </si>
 </sst>
 </file>
@@ -3000,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,8 +3152,12 @@
       <c r="H8" s="2">
         <v>45033</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2">
+        <v>45035</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45036</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3191,18 +3199,28 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4">
-        <f>SUM(C9:M9)/11</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+        <f>SUM(C9:M9)/8</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3229,18 +3247,28 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+        <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/8</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3267,18 +3295,28 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3305,18 +3343,28 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3343,18 +3391,28 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3379,18 +3437,28 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="O14" s="1">
+        <v>40</v>
+      </c>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3415,18 +3483,28 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3451,18 +3529,28 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3487,18 +3575,28 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3523,18 +3621,28 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -3559,18 +3667,28 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3595,18 +3713,28 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3631,18 +3759,28 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3667,18 +3805,28 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3703,18 +3851,28 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+      <c r="P23" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3739,18 +3897,28 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>50</v>
+      </c>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3775,8 +3943,12 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3784,9 +3956,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3811,18 +3989,28 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+      <c r="P26" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3847,18 +4035,28 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="O27" s="1">
+        <v>20</v>
+      </c>
+      <c r="P27" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3883,18 +4081,28 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="4">
-        <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="O28" s="1">
+        <v>100</v>
+      </c>
+      <c r="P28" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3971,4 +4179,891 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA73F7F-4A0E-491F-8899-A9E6795B972B}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>45048</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O14" s="1">
+        <v>40</v>
+      </c>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+      <c r="P23" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O24" s="1">
+        <v>50</v>
+      </c>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+      <c r="P26" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O27" s="1">
+        <v>20</v>
+      </c>
+      <c r="P27" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>100</v>
+      </c>
+      <c r="P28" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{C35C9378-C794-4485-989B-0D0B3DC5D78B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{052F700C-00B0-4B91-BD32-F7C989F33C49}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C28:M28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23914E58-E898-418E-8C35-DFADB58349F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D554F-10FD-41E3-B821-A96A1D1DB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA73F7F-4A0E-491F-8899-A9E6795B972B}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,8 +4318,12 @@
       <c r="C8" s="2">
         <v>45048</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>45049</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45054</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4351,8 +4355,12 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4363,7 +4371,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f>SUM(C9:M9)/8</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O9" s="1">
         <v>100</v>
@@ -4385,8 +4393,12 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4397,7 +4409,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/8</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O10" s="1">
         <v>100</v>
@@ -4419,8 +4431,12 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4431,7 +4447,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O11" s="1">
         <v>100</v>
@@ -4453,8 +4469,12 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4487,8 +4507,12 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4519,8 +4543,12 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4551,8 +4579,12 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4563,7 +4595,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O15" s="1">
         <v>100</v>
@@ -4583,8 +4615,12 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4595,7 +4631,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O16" s="1">
         <v>100</v>
@@ -4615,8 +4651,12 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4627,7 +4667,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O17" s="1">
         <v>100</v>
@@ -4647,8 +4687,12 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4659,7 +4703,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O18" s="1">
         <v>100</v>
@@ -4679,8 +4723,12 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4691,7 +4739,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="O19" s="1">
         <v>100</v>
@@ -4711,8 +4759,12 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4723,7 +4775,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O20" s="1">
         <v>100</v>
@@ -4743,8 +4795,12 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4755,7 +4811,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O21" s="1">
         <v>100</v>
@@ -4775,8 +4831,12 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4787,7 +4847,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="O22" s="1">
         <v>100</v>
@@ -4807,8 +4867,12 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4819,7 +4883,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O23" s="1">
         <v>100</v>
@@ -4839,8 +4903,12 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4851,7 +4919,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O24" s="1">
         <v>50</v>
@@ -4871,8 +4939,12 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4903,8 +4975,12 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4915,7 +4991,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="O26" s="1">
         <v>100</v>
@@ -4935,8 +5011,12 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4947,7 +5027,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="O27" s="1">
         <v>20</v>
@@ -4967,8 +5047,12 @@
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4979,7 +5063,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O28" s="1">
         <v>100</v>
@@ -5001,11 +5085,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -5013,12 +5092,17 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
+++ b/Topicos Av de Programación/LISTA DE ASISTENCIA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Topicos Av de Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D554F-10FD-41E3-B821-A96A1D1DB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD283312-5C9F-434C-B145-B69411511485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
     <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
+    <sheet name="UNIDAD 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="42">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -160,6 +161,12 @@
   <si>
     <t>Acceso a Datos</t>
   </si>
+  <si>
+    <t>Programación de dispositivos Móviles</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,12 +233,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -241,6 +259,7 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +272,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,175 +602,181 @@
     <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:19" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="D8" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="E8" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="F8" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="G8" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="H8" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="I8" s="2">
-        <v>44966</v>
+        <v>44971</v>
       </c>
       <c r="J8" s="2">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="K8" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="L8" s="2">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="M8" s="2">
-        <v>44973</v>
-      </c>
-      <c r="N8" s="3" t="s">
+        <v>44979</v>
+      </c>
+      <c r="N8" s="2">
+        <v>44980</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -786,23 +812,28 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="4">
-        <f>SUM(C9:M9)/11</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="1"/>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM(C9:N9)/12</f>
+        <v>1</v>
+      </c>
       <c r="P9" s="1">
         <v>90</v>
       </c>
       <c r="Q9" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="R9" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -838,23 +869,28 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N27" si="0">SUM(C10:M10)/11</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" ref="O10:O28" si="0">SUM(C10:N10)/12</f>
+        <v>1</v>
+      </c>
       <c r="P10" s="1">
         <v>100</v>
       </c>
       <c r="Q10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="R10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -882,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -890,23 +926,28 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="O11" s="1"/>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="P11" s="1">
         <v>80</v>
       </c>
       <c r="Q11" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="R11" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -940,25 +981,30 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O12" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="P12" s="1">
         <v>0</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -992,25 +1038,30 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O13" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
       <c r="P13" s="1">
         <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1042,25 +1093,30 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1094,23 +1150,28 @@
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="O15" s="1"/>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="P15" s="1">
         <v>85</v>
       </c>
       <c r="Q15" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="R15" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1144,23 +1205,28 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1194,23 +1260,28 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="1"/>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="P17" s="1">
         <v>95</v>
       </c>
       <c r="Q17" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="R17" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1244,23 +1315,28 @@
       <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="O18" s="1"/>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="P18" s="1">
         <v>0</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1294,23 +1370,28 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="O19" s="1"/>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="P19" s="1">
         <v>85</v>
       </c>
       <c r="Q19" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="R19" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1342,25 +1423,30 @@
         <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="O20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="P20" s="1">
         <v>0</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1394,23 +1480,28 @@
       <c r="M21" s="1">
         <v>1</v>
       </c>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="1"/>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="P21" s="1">
         <v>80</v>
       </c>
       <c r="Q21" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="R21" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1444,23 +1535,28 @@
       <c r="M22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="1"/>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="P22" s="1">
         <v>80</v>
       </c>
       <c r="Q22" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="R22" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1494,23 +1590,28 @@
       <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="O23" s="1"/>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="P23" s="1">
         <v>50</v>
       </c>
       <c r="Q23" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="R23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1544,23 +1645,28 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="1"/>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1592,25 +1698,30 @@
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="O25" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1644,23 +1755,28 @@
       <c r="M26" s="1">
         <v>1</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="O26" s="1"/>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="P26" s="1">
         <v>70</v>
       </c>
       <c r="Q26" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="R26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1694,23 +1810,28 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="O27" s="1"/>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="P27" s="1">
         <v>0</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1">
         <v>0</v>
       </c>
@@ -1744,32 +1865,27 @@
       <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" ref="N28" si="1">SUM(C28:M28)/11</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O28" s="1"/>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
       <c r="P28" s="1">
         <v>0</v>
       </c>
       <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A1:S2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
@@ -1784,6 +1900,16 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1807,7 +1933,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M28</xm:sqref>
+          <xm:sqref>C9:N28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1817,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A8CFF-51C7-49F6-90F1-F178526804D6}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,174 +1954,165 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="9" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
-        <v>44977</v>
+        <v>44985</v>
       </c>
       <c r="D8" s="2">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c r="E8" s="2">
-        <v>44980</v>
+        <v>44987</v>
       </c>
       <c r="F8" s="2">
-        <v>44984</v>
+        <v>44992</v>
       </c>
       <c r="G8" s="2">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H8" s="2">
         <v>44994</v>
       </c>
       <c r="I8" s="2">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="J8" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="K8" s="2">
-        <v>45000</v>
-      </c>
-      <c r="L8" s="2">
         <v>45001</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -2017,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -2025,23 +2142,25 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:M9)/10</f>
-        <v>0.9</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="L9" s="4">
+        <f>SUM(C9:K9)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -2071,23 +2190,25 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/10</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L28" si="0">SUM(C10:K10)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -2117,23 +2238,25 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M11" s="1">
+        <v>80</v>
+      </c>
+      <c r="N11" s="1">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -2163,23 +2286,25 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -2209,23 +2334,25 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2253,23 +2380,25 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M14" s="1">
+        <v>70</v>
+      </c>
+      <c r="N14" s="1">
+        <v>70</v>
+      </c>
+      <c r="O14" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -2295,25 +2424,27 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>80</v>
+      </c>
+      <c r="N15" s="1">
+        <v>80</v>
+      </c>
+      <c r="O15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -2341,23 +2472,25 @@
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -2385,31 +2518,33 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2429,23 +2564,25 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M18" s="1">
+        <v>80</v>
+      </c>
+      <c r="N18" s="1">
+        <v>80</v>
+      </c>
+      <c r="O18" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -2473,23 +2610,25 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -2517,23 +2656,25 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>90</v>
+      </c>
+      <c r="N20" s="1">
+        <v>90</v>
+      </c>
+      <c r="O20" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -2561,23 +2702,25 @@
       <c r="K21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -2605,23 +2748,25 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -2635,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -2649,28 +2794,30 @@
       <c r="K23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M23" s="1">
+        <v>80</v>
+      </c>
+      <c r="N23" s="1">
+        <v>80</v>
+      </c>
+      <c r="O23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2693,23 +2840,25 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M24" s="1">
+        <v>90</v>
+      </c>
+      <c r="N24" s="1">
+        <v>90</v>
+      </c>
+      <c r="O24" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -2737,23 +2886,25 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -2781,23 +2932,26 @@
       <c r="K26" s="1">
         <v>1</v>
       </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>80</v>
+      </c>
+      <c r="N26" s="1">
+        <v>80</v>
+      </c>
+      <c r="O26" s="1">
+        <v>80</v>
+      </c>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -2825,23 +2979,25 @@
       <c r="K27" s="1">
         <v>1</v>
       </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M27" s="1">
+        <v>70</v>
+      </c>
+      <c r="N27" s="1">
+        <v>70</v>
+      </c>
+      <c r="O27" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1">
         <v>1</v>
       </c>
@@ -2869,30 +3025,30 @@
       <c r="K28" s="1">
         <v>1</v>
       </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>70</v>
+      </c>
+      <c r="N28" s="1">
+        <v>70</v>
+      </c>
+      <c r="O28" s="1">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2905,21 +3061,19 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
+          <x14:cfRule type="iconSet" priority="5" id="{6194F9DF-A952-4C32-84A7-5730C42A838D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2935,10 +3089,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:H27 M9:M27</xm:sqref>
+          <xm:sqref>C9:H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{A41C2587-F283-47C8-B160-274C0B765BC1}">
+          <x14:cfRule type="iconSet" priority="6" id="{A41C2587-F283-47C8-B160-274C0B765BC1}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2954,10 +3108,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C28:H28 M28</xm:sqref>
+          <xm:sqref>C28:H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{A19C76C6-2725-460E-A6FC-948FC5E35670}">
+          <x14:cfRule type="iconSet" priority="7" id="{A19C76C6-2725-460E-A6FC-948FC5E35670}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2973,10 +3127,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I9:L27</xm:sqref>
+          <xm:sqref>I9:K27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{B4D6E61F-2F33-4F9B-A3CF-9065F8DD6DCF}">
+          <x14:cfRule type="iconSet" priority="8" id="{B4D6E61F-2F33-4F9B-A3CF-9065F8DD6DCF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2992,7 +3146,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I28:L28</xm:sqref>
+          <xm:sqref>I28:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3002,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017EDF9-3DE9-47C8-9DED-39DEFA9FCBAE}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,121 +3173,113 @@
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
         <v>45006</v>
       </c>
@@ -3141,44 +3287,44 @@
         <v>45007</v>
       </c>
       <c r="E8" s="2">
-        <v>45012</v>
+        <v>45008</v>
       </c>
       <c r="F8" s="2">
         <v>45013</v>
       </c>
       <c r="G8" s="2">
+        <v>45014</v>
+      </c>
+      <c r="H8" s="2">
         <v>45015</v>
       </c>
-      <c r="H8" s="2">
-        <v>45033</v>
-      </c>
       <c r="I8" s="2">
+        <v>45034</v>
+      </c>
+      <c r="J8" s="2">
         <v>45035</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>45036</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -3205,634 +3351,1845 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:M9)/8</f>
-        <v>1</v>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(C9:K9)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
       </c>
       <c r="O9" s="1">
         <v>100</v>
       </c>
-      <c r="P9" s="1">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L28" si="0">SUM(C10:K10)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>100</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="N10" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/8</f>
-        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M11" s="1">
+        <v>70</v>
+      </c>
+      <c r="N11" s="1">
+        <v>70</v>
+      </c>
+      <c r="O11" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M14" s="1">
+        <v>70</v>
+      </c>
+      <c r="N14" s="1">
+        <v>70</v>
+      </c>
+      <c r="O14" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M15" s="1">
+        <v>70</v>
+      </c>
+      <c r="N15" s="1">
+        <v>70</v>
+      </c>
+      <c r="O15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M16" s="1">
         <v>100</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="N16" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>100</v>
-      </c>
-      <c r="P11" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>100</v>
-      </c>
-      <c r="P12" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="O14" s="1">
-        <v>40</v>
-      </c>
-      <c r="P14" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>100</v>
-      </c>
-      <c r="P15" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
       </c>
       <c r="O16" s="1">
         <v>100</v>
       </c>
-      <c r="P16" s="1">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
         <v>100</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="N17" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="O17" s="1">
         <v>100</v>
       </c>
-      <c r="P17" s="1">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M18" s="1">
+        <v>70</v>
+      </c>
+      <c r="N18" s="1">
+        <v>70</v>
+      </c>
+      <c r="O18" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
         <v>100</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="N19" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>100</v>
-      </c>
-      <c r="P18" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
       </c>
       <c r="O19" s="1">
         <v>100</v>
       </c>
-      <c r="P19" s="1">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>100</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="N20" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="O20" s="1">
         <v>100</v>
       </c>
-      <c r="P20" s="1">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
         <v>100</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="N21" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
       </c>
       <c r="O21" s="1">
         <v>100</v>
       </c>
-      <c r="P21" s="1">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
         <v>100</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="N22" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
       </c>
       <c r="O22" s="1">
         <v>100</v>
       </c>
-      <c r="P22" s="1">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>80</v>
+      </c>
+      <c r="N23" s="1">
+        <v>80</v>
+      </c>
+      <c r="O23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M24" s="1">
+        <v>80</v>
+      </c>
+      <c r="N24" s="1">
+        <v>80</v>
+      </c>
+      <c r="O24" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>80</v>
+      </c>
+      <c r="N26" s="1">
+        <v>80</v>
+      </c>
+      <c r="O26" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A6905344-5CB1-4368-A0DF-46562D04346E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{6637D158-ABF3-4DA5-8D02-D76D7D5F4AEE}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C28:H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{91D2CE93-A0D4-4C97-AFC9-29ED127D68D9}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I9:K27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{08641218-3BC5-4C64-AF7F-4B0AAE99A83B}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I28:K28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA73F7F-4A0E-491F-8899-A9E6795B972B}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45042</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45043</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45048</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45049</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45050</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45055</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45056</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45057</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(C9:K9)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>100</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="N9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L28" si="0">SUM(C10:K10)/9</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>70</v>
+      </c>
+      <c r="N18" s="1">
+        <v>70</v>
+      </c>
+      <c r="O18" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>90</v>
+      </c>
+      <c r="N19" s="1">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>90</v>
+      </c>
+      <c r="N20" s="1">
+        <v>90</v>
+      </c>
+      <c r="O20" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>90</v>
+      </c>
+      <c r="N21" s="1">
+        <v>90</v>
+      </c>
+      <c r="O21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>90</v>
+      </c>
+      <c r="N22" s="1">
+        <v>90</v>
+      </c>
+      <c r="O22" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -3846,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3857,45 +5214,45 @@
       <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>80</v>
+      </c>
+      <c r="N23" s="1">
+        <v>80</v>
       </c>
       <c r="O23" s="1">
-        <v>100</v>
-      </c>
-      <c r="P23" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -3903,28 +5260,28 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M24" s="1">
+        <v>70</v>
+      </c>
+      <c r="N24" s="1">
+        <v>70</v>
       </c>
       <c r="O24" s="1">
-        <v>50</v>
-      </c>
-      <c r="P24" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -3949,33 +5306,33 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>0</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3984,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -3995,28 +5352,28 @@
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>70</v>
+      </c>
+      <c r="N26" s="1">
+        <v>70</v>
       </c>
       <c r="O26" s="1">
-        <v>100</v>
-      </c>
-      <c r="P26" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -4030,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -4039,35 +5396,35 @@
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>20</v>
-      </c>
-      <c r="P27" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -4076,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -4085,29 +5442,29 @@
         <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>100</v>
-      </c>
-      <c r="P28" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -4138,7 +5495,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{29C9DA2B-92C9-45D6-8F5D-C5C44B22BDEC}">
+          <x14:cfRule type="iconSet" priority="1" id="{623844CE-CE57-4242-98CD-4C302709FD26}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4154,10 +5511,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
+          <xm:sqref>C9:H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{4106DA23-7638-45FB-A17B-FCC2929469F7}">
+          <x14:cfRule type="iconSet" priority="2" id="{57A3B0C8-B3CA-4C16-B9C0-6595FFC6678A}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4173,7 +5530,45 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C28:M28</xm:sqref>
+          <xm:sqref>C28:H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{FD9488AC-0D3C-4FCF-B24E-1BE3B3EDAD87}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I9:K27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{C8C18578-CA03-4175-ABF8-A96131A8F9A4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I28:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4181,12 +5576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA73F7F-4A0E-491F-8899-A9E6795B972B}">
-  <dimension ref="A1:R28"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEF28D0-4DCD-415F-9BA1-FB25CEC8C955}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,160 +5591,164 @@
     <col min="7" max="9" width="5.85546875" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="D8" s="2">
-        <v>45049</v>
+        <v>45063</v>
       </c>
       <c r="E8" s="2">
-        <v>45054</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+        <v>45064</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45069</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45070</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45071</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45075</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45076</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45077</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -4361,33 +5760,39 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4">
-        <f>SUM(C9:M9)/8</f>
-        <v>0.375</v>
+      <c r="L9" s="4">
+        <f t="shared" ref="L9:L28" si="0">SUM(C9:K9)/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>100</v>
-      </c>
-      <c r="P9" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -4399,33 +5804,39 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10:N28" si="0">SUM(C10:M10)/8</f>
-        <v>0.375</v>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
       </c>
       <c r="O10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -4435,35 +5846,41 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>100</v>
-      </c>
-      <c r="P11" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -4475,33 +5892,39 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>100</v>
-      </c>
-      <c r="P12" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -4513,105 +5936,124 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>0</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>40</v>
-      </c>
-      <c r="P14" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>100</v>
-      </c>
-      <c r="P15" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -4621,33 +6063,39 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>100</v>
-      </c>
-      <c r="P16" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -4657,69 +6105,81 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M17" s="1">
+        <v>80</v>
+      </c>
+      <c r="N17" s="1">
+        <v>80</v>
       </c>
       <c r="O17" s="1">
-        <v>100</v>
-      </c>
-      <c r="P17" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>100</v>
-      </c>
-      <c r="P18" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -4727,35 +6187,41 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M19" s="1">
+        <v>70</v>
+      </c>
+      <c r="N19" s="1">
+        <v>70</v>
       </c>
       <c r="O19" s="1">
-        <v>100</v>
-      </c>
-      <c r="P19" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -4765,33 +6231,40 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>100</v>
-      </c>
-      <c r="P20" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -4801,33 +6274,39 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>100</v>
-      </c>
-      <c r="P21" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -4835,35 +6314,41 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>100</v>
-      </c>
-      <c r="P22" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -4873,33 +6358,39 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>100</v>
-      </c>
-      <c r="P23" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -4909,33 +6400,39 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>50</v>
-      </c>
-      <c r="P24" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -4945,135 +6442,160 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
-        <f t="shared" si="0"/>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>0</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>100</v>
-      </c>
-      <c r="P26" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>20</v>
-      </c>
-      <c r="P27" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>100</v>
-      </c>
-      <c r="P28" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5098,7 +6620,7 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A1:P2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -5109,7 +6631,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{C35C9378-C794-4485-989B-0D0B3DC5D78B}">
+          <x14:cfRule type="iconSet" priority="9" id="{E172DF43-85D1-49FF-977A-817E50CDD25D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5125,10 +6647,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M27</xm:sqref>
+          <xm:sqref>C9:K27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{052F700C-00B0-4B91-BD32-F7C989F33C49}">
+          <x14:cfRule type="iconSet" priority="10" id="{72584F4C-666F-4904-8231-DE4E0EE9CDEA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5144,7 +6666,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C28:M28</xm:sqref>
+          <xm:sqref>C28:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
